--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AR/trans/BVS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AR\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4571065-26E8-0F45-ACC2-8F46A453658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C542D6D-B1CB-4E6A-8ECD-858D85FADF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="15340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1415" yWindow="1415" windowWidth="14400" windowHeight="7290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
   <si>
     <t>Sources:</t>
   </si>
@@ -87,9 +87,6 @@
     <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
   </si>
   <si>
-    <t>State Rebates + Tax Credits Updated 8/11/2021</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>LDV</t>
   </si>
   <si>
-    <t>Note: average of cars and truck subsidies, which are different</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Note: Pennsylvania offers a $1750 rebate, but only to the first 250 qualified applicants.</t>
-  </si>
-  <si>
     <t>Total Tax Credit (2012$)</t>
   </si>
   <si>
@@ -565,6 +556,21 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>State Rebates + Tax Credits Updated 7/26/2024</t>
+  </si>
+  <si>
+    <t>Note: maximum of 5000 for vehicles under 80,000. additional 2500 available for vehicles under 35000</t>
+  </si>
+  <si>
+    <t>Note: CVRP closed to new applications as of Nov 2023</t>
+  </si>
+  <si>
+    <t>Note: value was previously 1500 but after digging I don’t believe LA has ever had a state tax credit</t>
+  </si>
+  <si>
+    <t>Note; renewed on annual basis</t>
   </si>
 </sst>
 </file>
@@ -1263,454 +1269,454 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="39">
-        <v>45296</v>
+        <v>45501</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F2:G51,G2:G51)</f>
         <v>AR</v>
       </c>
       <c r="F2" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="38" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="G4" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2023</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B7" s="4"/>
       <c r="F7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F10" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="38" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F11" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="38" t="s">
+      <c r="G11" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B12" s="3"/>
       <c r="F12" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F13" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B14" s="4"/>
       <c r="F14" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F15" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="38" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F16" s="38" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="38" t="s">
+      <c r="G16" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="38" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F17" s="38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="38" t="s">
+      <c r="G17" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="38" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F18" s="38" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="38" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F19" s="38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="38" t="s">
+      <c r="G19" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F20" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G20" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F21" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="38" t="s">
+      <c r="G21" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F22" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="38" t="s">
+      <c r="G22" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F23" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="38" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F24" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="38" t="s">
+      <c r="G24" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="38" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F25" s="38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="38" t="s">
+      <c r="G25" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B26" s="3"/>
       <c r="F26" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F27" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B28" s="4"/>
       <c r="F28" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F29" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="38" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F30" s="38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="38" t="s">
+      <c r="G30" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="1"/>
       <c r="F31" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F32" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F33" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G33" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F34" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F35" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F38" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F39" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F40" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F41" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F42" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F43" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F44" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F45" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F46" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F42" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F43" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F45" s="38" t="s">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F47" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F46" s="38" t="s">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F48" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F47" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="G47" s="38" t="s">
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F49" s="38" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F48" s="38" t="s">
+      <c r="G49" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="38" t="s">
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F50" s="38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F49" s="38" t="s">
+      <c r="G50" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="38" t="s">
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F51" s="38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F50" s="38" t="s">
+      <c r="G51" s="38" t="s">
         <v>169</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F51" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1730,12 +1736,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2517,7 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2528,12 +2534,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3340,12 +3346,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4151,12 +4157,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4932,12 +4938,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5127,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5713,12 +5719,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6003,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6383,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6494,12 +6500,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6784,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7164,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7266,30 +7272,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -7381,9 +7387,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2435.88</v>
@@ -7486,9 +7492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>6652.72</v>
@@ -7591,15 +7597,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B8">
         <v>2021</v>
       </c>
@@ -7691,9 +7697,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>2435.88</v>
@@ -7786,9 +7792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>6652.72</v>
@@ -7881,63 +7887,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="A16" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A17" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D19" s="8">
         <v>2020</v>
@@ -7967,15 +7973,15 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8">
         <v>5.6849999999999996</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8">
         <v>4750</v>
@@ -7987,30 +7993,30 @@
         <v>3000</v>
       </c>
       <c r="G20" s="8">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="8">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="8">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="J20" s="8">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
         <v>3.5710000000000002</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8">
         <v>2250</v>
@@ -8035,18 +8041,18 @@
       </c>
       <c r="K21" s="8"/>
       <c r="R21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8">
         <v>0.96799999999999997</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="8">
         <v>2500</v>
@@ -8070,15 +8076,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8">
         <v>8.3800000000000008</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11">
         <v>2000</v>
@@ -8102,20 +8108,20 @@
         <v>2000</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8">
         <v>28.64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8">
         <v>2500</v>
@@ -8139,19 +8145,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="8">
         <v>39.35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="8">
         <v>2500</v>
@@ -8166,56 +8172,62 @@
         <v>2500</v>
       </c>
       <c r="H25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8">
         <v>4.665</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J26" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8">
         <v>1.341</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
@@ -8239,24 +8251,24 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B28" s="8">
-        <v>6.0380000000000003</v>
+        <v>5.7169999999999996</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>2500</v>
@@ -8271,15 +8283,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
-        <v>6.8730000000000002</v>
+        <v>6.0380000000000003</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="8">
         <v>2500</v>
@@ -8303,758 +8315,858 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J30" s="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="8">
+        <v>12.97</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="8">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="B35" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+    </row>
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="8">
-        <v>0.624</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="K32" s="8" t="s">
+      <c r="B36" s="8">
+        <f>B37-SUM(B20:B35)</f>
+        <v>190.52300000000002</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A37" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B37" s="8">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>2024</v>
+      </c>
+      <c r="G44">
+        <v>2025</v>
+      </c>
+      <c r="H44">
+        <v>2026</v>
+      </c>
+      <c r="I44">
+        <v>2027</v>
+      </c>
+      <c r="J44">
+        <v>2028</v>
+      </c>
+      <c r="K44">
+        <v>2029</v>
+      </c>
+      <c r="L44">
+        <v>2030</v>
+      </c>
+      <c r="M44">
+        <v>2031</v>
+      </c>
+      <c r="N44">
+        <v>2032</v>
+      </c>
+      <c r="O44">
+        <v>2033</v>
+      </c>
+      <c r="P44">
+        <v>2034</v>
+      </c>
+      <c r="Q44">
+        <v>2035</v>
+      </c>
+      <c r="R44">
+        <v>2036</v>
+      </c>
+      <c r="S44">
+        <v>2037</v>
+      </c>
+      <c r="T44">
+        <v>2038</v>
+      </c>
+      <c r="U44">
+        <v>2039</v>
+      </c>
+      <c r="V44">
+        <v>2040</v>
+      </c>
+      <c r="W44">
+        <v>2041</v>
+      </c>
+      <c r="X44">
+        <v>2042</v>
+      </c>
+      <c r="Y44">
+        <v>2043</v>
+      </c>
+      <c r="Z44">
+        <v>2044</v>
+      </c>
+      <c r="AA44">
+        <v>2045</v>
+      </c>
+      <c r="AB44">
+        <v>2046</v>
+      </c>
+      <c r="AC44">
+        <v>2047</v>
+      </c>
+      <c r="AD44">
+        <v>2048</v>
+      </c>
+      <c r="AE44">
+        <v>2049</v>
+      </c>
+      <c r="AF44">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="C45" s="5">
+        <f>SUMIFS(E$19:E$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <f>SUMIFS(F$19:F$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <f>SUMIFS(G$19:G$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <f>SUMIFS(H$19:H$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <f>SUMIFS(I$19:I$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <f>SUMIFS(J$19:J$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <f>SUMIFS(K$19:K$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>SUMIFS(L$19:L$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <f>SUMIFS(M$19:M$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <f>SUMIFS(N$19:N$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <f>SUMIFS(O$19:O$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <f>SUMIFS(P$19:P$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <f>SUMIFS(Q$19:Q$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <f>SUMIFS(R$19:R$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>SUMIFS(S$19:S$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="5">
+        <f>SUMIFS(T$19:T$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <f>SUMIFS(U$19:U$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
+        <f>SUMIFS(V$19:V$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="5">
+        <f>SUMIFS(W$19:W$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <f>SUMIFS(X$19:X$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <f>SUMIFS(Y$19:Y$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <f>SUMIFS(Z$19:Z$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>SUMIFS(AA$19:AA$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>SUMIFS(AB$19:AB$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="5">
+        <f>SUMIFS(AC$19:AC$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5">
+        <f>SUMIFS(AD$19:AD$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <f>SUMIFS(AE$19:AE$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <f>SUMIFS(AF$19:AF$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="5">
+        <f>SUMIFS(AG$19:AG$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <f>SUMIFS(AH$19:AH$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8">
-        <f>B34-SUM(B20:B32)</f>
-        <v>210.304</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>2024</v>
+      </c>
+      <c r="G48">
+        <v>2025</v>
+      </c>
+      <c r="H48">
+        <v>2026</v>
+      </c>
+      <c r="I48">
+        <v>2027</v>
+      </c>
+      <c r="J48">
+        <v>2028</v>
+      </c>
+      <c r="K48">
+        <v>2029</v>
+      </c>
+      <c r="L48">
+        <v>2030</v>
+      </c>
+      <c r="M48">
+        <v>2031</v>
+      </c>
+      <c r="N48">
+        <v>2032</v>
+      </c>
+      <c r="O48">
+        <v>2033</v>
+      </c>
+      <c r="P48">
+        <v>2034</v>
+      </c>
+      <c r="Q48">
+        <v>2035</v>
+      </c>
+      <c r="R48">
+        <v>2036</v>
+      </c>
+      <c r="S48">
+        <v>2037</v>
+      </c>
+      <c r="T48">
+        <v>2038</v>
+      </c>
+      <c r="U48">
+        <v>2039</v>
+      </c>
+      <c r="V48">
+        <v>2040</v>
+      </c>
+      <c r="W48">
+        <v>2041</v>
+      </c>
+      <c r="X48">
+        <v>2042</v>
+      </c>
+      <c r="Y48">
+        <v>2043</v>
+      </c>
+      <c r="Z48">
+        <v>2044</v>
+      </c>
+      <c r="AA48">
+        <v>2045</v>
+      </c>
+      <c r="AB48">
+        <v>2046</v>
+      </c>
+      <c r="AC48">
+        <v>2047</v>
+      </c>
+      <c r="AD48">
+        <v>2048</v>
+      </c>
+      <c r="AE48">
+        <v>2049</v>
+      </c>
+      <c r="AF48">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="8">
-        <v>329.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <v>2021</v>
-      </c>
-      <c r="D41">
-        <v>2022</v>
-      </c>
-      <c r="E41">
-        <v>2023</v>
-      </c>
-      <c r="F41">
-        <v>2024</v>
-      </c>
-      <c r="G41">
-        <v>2025</v>
-      </c>
-      <c r="H41">
-        <v>2026</v>
-      </c>
-      <c r="I41">
-        <v>2027</v>
-      </c>
-      <c r="J41">
-        <v>2028</v>
-      </c>
-      <c r="K41">
-        <v>2029</v>
-      </c>
-      <c r="L41">
-        <v>2030</v>
-      </c>
-      <c r="M41">
-        <v>2031</v>
-      </c>
-      <c r="N41">
-        <v>2032</v>
-      </c>
-      <c r="O41">
-        <v>2033</v>
-      </c>
-      <c r="P41">
-        <v>2034</v>
-      </c>
-      <c r="Q41">
-        <v>2035</v>
-      </c>
-      <c r="R41">
-        <v>2036</v>
-      </c>
-      <c r="S41">
-        <v>2037</v>
-      </c>
-      <c r="T41">
-        <v>2038</v>
-      </c>
-      <c r="U41">
-        <v>2039</v>
-      </c>
-      <c r="V41">
-        <v>2040</v>
-      </c>
-      <c r="W41">
-        <v>2041</v>
-      </c>
-      <c r="X41">
-        <v>2042</v>
-      </c>
-      <c r="Y41">
-        <v>2043</v>
-      </c>
-      <c r="Z41">
-        <v>2044</v>
-      </c>
-      <c r="AA41">
-        <v>2045</v>
-      </c>
-      <c r="AB41">
-        <v>2046</v>
-      </c>
-      <c r="AC41">
-        <v>2047</v>
-      </c>
-      <c r="AD41">
-        <v>2048</v>
-      </c>
-      <c r="AE41">
-        <v>2049</v>
-      </c>
-      <c r="AF41">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C42" s="5">
-        <f>SUMIFS(E$19:E$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="5">
-        <f>SUMIFS(F$19:F$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <f>SUMIFS(G$19:G$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <f>SUMIFS(H$19:H$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <f>SUMIFS(I$19:I$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <f>SUMIFS(J$19:J$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <f>SUMIFS(K$19:K$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <f>SUMIFS(L$19:L$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <f>SUMIFS(M$19:M$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <f>SUMIFS(N$19:N$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <f>SUMIFS(O$19:O$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="5">
-        <f>SUMIFS(P$19:P$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <f>SUMIFS(Q$19:Q$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <f>SUMIFS(R$19:R$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <f>SUMIFS(S$19:S$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <f>SUMIFS(T$19:T$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <f>SUMIFS(U$19:U$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <f>SUMIFS(V$19:V$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <f>SUMIFS(W$19:W$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <f>SUMIFS(X$19:X$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <f>SUMIFS(Y$19:Y$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <f>SUMIFS(Z$19:Z$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="5">
-        <f>SUMIFS(AA$19:AA$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="5">
-        <f>SUMIFS(AB$19:AB$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
-        <f>SUMIFS(AC$19:AC$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="5">
-        <f>SUMIFS(AD$19:AD$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <f>SUMIFS(AE$19:AE$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <f>SUMIFS(AF$19:AF$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <f>SUMIFS(AG$19:AG$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="5">
-        <f>SUMIFS(AH$19:AH$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C45">
-        <v>2021</v>
-      </c>
-      <c r="D45">
-        <v>2022</v>
-      </c>
-      <c r="E45">
-        <v>2023</v>
-      </c>
-      <c r="F45">
-        <v>2024</v>
-      </c>
-      <c r="G45">
-        <v>2025</v>
-      </c>
-      <c r="H45">
-        <v>2026</v>
-      </c>
-      <c r="I45">
-        <v>2027</v>
-      </c>
-      <c r="J45">
-        <v>2028</v>
-      </c>
-      <c r="K45">
-        <v>2029</v>
-      </c>
-      <c r="L45">
-        <v>2030</v>
-      </c>
-      <c r="M45">
-        <v>2031</v>
-      </c>
-      <c r="N45">
-        <v>2032</v>
-      </c>
-      <c r="O45">
-        <v>2033</v>
-      </c>
-      <c r="P45">
-        <v>2034</v>
-      </c>
-      <c r="Q45">
-        <v>2035</v>
-      </c>
-      <c r="R45">
-        <v>2036</v>
-      </c>
-      <c r="S45">
-        <v>2037</v>
-      </c>
-      <c r="T45">
-        <v>2038</v>
-      </c>
-      <c r="U45">
-        <v>2039</v>
-      </c>
-      <c r="V45">
-        <v>2040</v>
-      </c>
-      <c r="W45">
-        <v>2041</v>
-      </c>
-      <c r="X45">
-        <v>2042</v>
-      </c>
-      <c r="Y45">
-        <v>2043</v>
-      </c>
-      <c r="Z45">
-        <v>2044</v>
-      </c>
-      <c r="AA45">
-        <v>2045</v>
-      </c>
-      <c r="AB45">
-        <v>2046</v>
-      </c>
-      <c r="AC45">
-        <v>2047</v>
-      </c>
-      <c r="AD45">
-        <v>2048</v>
-      </c>
-      <c r="AE45">
-        <v>2049</v>
-      </c>
-      <c r="AF45">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <f>B4+C42</f>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
+        <f>B4+C45</f>
         <v>2435.88</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" ref="D46:AF46" si="3">C4+D42</f>
+      <c r="D49" s="5">
+        <f t="shared" ref="D49:AF49" si="3">C4+D45</f>
         <v>1697.08</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E49" s="5">
         <f t="shared" si="3"/>
         <v>1020.0425</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F49" s="5">
         <f t="shared" si="3"/>
         <v>1000.8575</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G49" s="5">
         <f t="shared" si="3"/>
         <v>1102.7774999999999</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H49" s="5">
         <f t="shared" si="3"/>
         <v>1057.2825</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I49" s="5">
         <f t="shared" si="3"/>
         <v>1022.79</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J49" s="5">
         <f t="shared" si="3"/>
         <v>1024.8150000000001</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K49" s="5">
         <f t="shared" si="3"/>
         <v>1031.5474999999999</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L49" s="5">
         <f t="shared" si="3"/>
         <v>1089.8074999999999</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M49" s="5">
         <f t="shared" si="3"/>
         <v>1145.5925</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N49" s="5">
         <f t="shared" si="3"/>
         <v>1156.375</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X46" s="5">
+      <c r="X49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="5">
+      <c r="Y49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z46" s="5">
+      <c r="Z49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="5">
+      <c r="AA49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB46" s="5">
+      <c r="AB49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC46" s="5">
+      <c r="AC49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD46" s="5">
+      <c r="AD49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="5">
+      <c r="AE49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF46" s="5">
+      <c r="AF49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5">
-        <f>B5+C42</f>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5">
+        <f>B5+C45</f>
         <v>6652.72</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" ref="D47:AF47" si="4">C5+D42</f>
+      <c r="D50" s="5">
+        <f t="shared" ref="D50:AF50" si="4">C5+D45</f>
         <v>3617.05</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E50" s="5">
         <f t="shared" si="4"/>
         <v>1020.0425</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F50" s="5">
         <f t="shared" si="4"/>
         <v>1000.8575</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G50" s="5">
         <f t="shared" si="4"/>
         <v>1102.7774999999999</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H50" s="5">
         <f t="shared" si="4"/>
         <v>1057.2825</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I50" s="5">
         <f t="shared" si="4"/>
         <v>1022.79</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J50" s="5">
         <f t="shared" si="4"/>
         <v>1024.8150000000001</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K50" s="5">
         <f t="shared" si="4"/>
         <v>1031.5474999999999</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L50" s="5">
         <f t="shared" si="4"/>
         <v>1089.8074999999999</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M50" s="5">
         <f t="shared" si="4"/>
         <v>1145.5925</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N50" s="5">
         <f t="shared" si="4"/>
         <v>1156.375</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="5">
+      <c r="Y50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="5">
+      <c r="Z50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="5">
+      <c r="AA50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="5">
+      <c r="AB50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="5">
+      <c r="AC50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="5">
+      <c r="AD50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="5">
+      <c r="AE50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="5">
+      <c r="AF50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9074,19 +9186,19 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.5" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.5" style="23"/>
+    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.453125" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.453125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -9126,9 +9238,9 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" ht="105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="108.25" x14ac:dyDescent="0.75">
       <c r="A2" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -9168,7 +9280,7 @@
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -9208,9 +9320,9 @@
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A4" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="35">
         <v>40000</v>
@@ -9252,9 +9364,9 @@
       <c r="AK4" s="25"/>
       <c r="AL4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="35">
         <v>7500</v>
@@ -9296,7 +9408,7 @@
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -9336,29 +9448,29 @@
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
     </row>
-    <row r="7" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A7" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="27">
         <f>B4*$B$16*$B$14</f>
         <v>27004</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A8" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="27">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="23">
         <v>2023</v>
       </c>
@@ -9390,9 +9502,9 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="36">
         <f>C36</f>
@@ -9435,9 +9547,9 @@
         <v>10279.777009851599</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -9477,108 +9589,108 @@
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
     </row>
-    <row r="14" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A14" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="26">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A16" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="26">
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="19" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A19" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
+      <c r="A20" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="22" spans="1:33" ht="40.5" x14ac:dyDescent="0.7">
+      <c r="A22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="D22" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="27" x14ac:dyDescent="0.7">
+      <c r="A23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="27">
         <f>B5*B14</f>
         <v>5887.5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="27" x14ac:dyDescent="0.7">
       <c r="A24" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="24">
         <v>3</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" s="27">
         <f>D23</f>
         <v>5887.5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="27" x14ac:dyDescent="0.7">
       <c r="A25" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="29">
         <v>44657</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="27">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="27" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A27" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A28" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -9613,7 +9725,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9648,9 +9760,9 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
     </row>
-    <row r="30" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A30" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -9685,9 +9797,9 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
     </row>
-    <row r="31" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A31" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="32">
         <v>2022</v>
@@ -9779,9 +9891,9 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
     </row>
-    <row r="32" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A32" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="33">
         <v>652.15881300000001</v>
@@ -9873,9 +9985,9 @@
       <c r="AE32" s="34"/>
       <c r="AF32" s="30"/>
     </row>
-    <row r="33" spans="1:32" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A33" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" s="33">
         <v>252.12297100000001</v>
@@ -9967,9 +10079,9 @@
       <c r="AE33" s="34"/>
       <c r="AF33" s="30"/>
     </row>
-    <row r="34" spans="1:32" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A34" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" s="33">
         <v>180.61982699999999</v>
@@ -10061,9 +10173,9 @@
       <c r="AE34" s="34"/>
       <c r="AF34" s="30"/>
     </row>
-    <row r="36" spans="1:32" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A36" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="27">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
@@ -10182,746 +10294,746 @@
         <v>9558.932689351499</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="40" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="41" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="42" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="43" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="44" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="45" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="46" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="47" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="48" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="49" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="50" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="51" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="52" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="53" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="54" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="55" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="56" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="57" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="58" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="59" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="60" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="61" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="62" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="63" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="64" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="65" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="66" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="67" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="68" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="69" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="70" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="71" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="72" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="73" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="74" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="75" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="76" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="77" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="78" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="79" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="80" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="81" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="82" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="83" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="84" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="85" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="86" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="87" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="88" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="89" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="90" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="91" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="92" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="93" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="94" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="95" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="96" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="97" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="98" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="99" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="100" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="101" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="102" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="103" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="104" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="105" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="106" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="107" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="108" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="109" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="110" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="111" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="112" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="113" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="114" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="115" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="116" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="117" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="118" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="119" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="120" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="121" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="122" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="123" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="124" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="125" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="126" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="127" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="128" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="129" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="130" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="131" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="132" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="133" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="134" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="135" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="136" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="137" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="138" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="139" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="140" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="141" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="142" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="143" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="144" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="145" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="146" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="147" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="148" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="149" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="150" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="151" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="152" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="153" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="154" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="155" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="156" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="157" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="158" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="159" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="160" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="161" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="162" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="163" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="164" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="165" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="166" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="167" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="168" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="169" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="170" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="171" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="172" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="173" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="174" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="175" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="176" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="177" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="178" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="179" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="180" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="181" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="182" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="183" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="184" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="185" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="186" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="187" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="188" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="189" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="190" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="191" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="192" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="193" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="194" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="195" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="196" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="197" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="198" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="199" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="200" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="201" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="202" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="203" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="204" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="205" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="206" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="207" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="208" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="209" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="210" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="211" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="212" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="213" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="214" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="215" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="216" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="217" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="218" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="219" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="220" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="221" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="222" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="223" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="224" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="225" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="226" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="227" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="228" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="229" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="230" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="231" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="232" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="233" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="234" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="235" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="236" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="237" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="238" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="239" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="240" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="241" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="242" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="243" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="244" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="245" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="246" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="247" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="248" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="249" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="250" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="251" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="252" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="253" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="254" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="255" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="256" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="257" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="258" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="259" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="260" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="261" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="262" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="263" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="264" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="265" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="266" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="267" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="268" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="269" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="270" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="271" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="272" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="273" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="274" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="275" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="276" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="277" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="278" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="279" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="280" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="281" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="282" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="283" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="284" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="285" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="286" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="287" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="288" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="289" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="290" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="291" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="292" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="293" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="294" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="295" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="296" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="297" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="298" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="299" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="300" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="301" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="302" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="303" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="304" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="305" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="306" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="307" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="308" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="309" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="310" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="311" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="312" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="313" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="314" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="315" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="316" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="317" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="318" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="319" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="320" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="321" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="322" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="323" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="324" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="325" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="326" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="327" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="328" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="329" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="330" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="331" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="332" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="333" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="334" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="335" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="336" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="337" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="338" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="339" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="340" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="341" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="342" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="343" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="344" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="345" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="346" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="347" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="348" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="349" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="350" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="351" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="352" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="353" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="354" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="355" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="356" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="357" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="358" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="359" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="360" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="361" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="362" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="363" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="364" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="365" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="366" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="367" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="368" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="369" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="370" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="371" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="372" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="373" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="374" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="375" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="376" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="377" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="378" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="379" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="380" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="381" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="382" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="383" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="384" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="385" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="386" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="387" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="388" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="389" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="390" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="391" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="392" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="393" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="394" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="395" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="396" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="397" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="398" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="399" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="400" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="401" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="402" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="403" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="404" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="405" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="406" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="407" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="408" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="409" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="410" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="411" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="412" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="413" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="414" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="415" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="416" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="417" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="418" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="419" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="420" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="421" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="422" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="423" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="424" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="425" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="426" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="427" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="428" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="429" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="430" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="431" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="432" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="433" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="434" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="435" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="436" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="437" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="438" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="439" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="440" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="441" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="442" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="443" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="444" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="445" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="446" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="447" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="448" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="449" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="450" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="451" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="452" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="453" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="454" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="455" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="456" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="457" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="458" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="459" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="460" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="461" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="462" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="463" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="464" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="465" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="466" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="467" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="468" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="469" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="470" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="471" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="472" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="473" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="474" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="475" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="476" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="477" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="478" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="479" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="480" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="481" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="482" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="483" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="484" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="485" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="486" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="487" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="488" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="489" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="490" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="491" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="492" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="493" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="494" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="495" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="496" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="497" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="498" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="499" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="500" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="501" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="502" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="503" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="504" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="505" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="506" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="507" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="508" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="509" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="510" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="511" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="512" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="513" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="514" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="515" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="516" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="517" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="518" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="519" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="520" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="521" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="522" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="523" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="524" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="525" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="526" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="527" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="528" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="529" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="530" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="531" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="532" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="533" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="534" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="535" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="536" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="537" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="538" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="539" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="540" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="541" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="542" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="543" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="544" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="545" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="546" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="547" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="548" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="549" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="550" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="551" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="552" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="553" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="554" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="555" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="556" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="557" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="558" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="559" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="560" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="561" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="562" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="563" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="564" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="565" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="566" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="567" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="568" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="569" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="570" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="571" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="572" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="573" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="574" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="575" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="576" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="577" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="578" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="579" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="580" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="581" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="582" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="583" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="584" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="585" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="586" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="587" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="588" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="589" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="590" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="591" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="592" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="593" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="594" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="595" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="596" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="597" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="598" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="599" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="600" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="601" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="602" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="603" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="604" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="605" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="606" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="607" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="608" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="609" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="610" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="611" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="612" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="613" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="614" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="615" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="616" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="617" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="618" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="619" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="620" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="621" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="622" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="623" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="624" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="625" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="626" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="627" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="628" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="629" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="630" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="631" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="632" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="633" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="634" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="635" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="636" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="637" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="638" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="639" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="640" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="641" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="642" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="643" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="644" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="645" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="646" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="647" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="648" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="649" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="650" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="651" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="652" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="653" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="654" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="655" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="656" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="657" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="658" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="659" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="660" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="661" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="662" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="663" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="664" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="665" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="666" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="667" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="668" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="669" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="670" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="671" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="672" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="673" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="674" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="675" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="676" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="677" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="678" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="679" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="680" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="681" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="682" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="683" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="684" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="685" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="686" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="687" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="688" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="689" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="690" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="691" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="692" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="693" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="694" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="695" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="696" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="697" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="698" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="699" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="700" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="701" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="702" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="703" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="704" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="705" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="706" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="707" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="708" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="709" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="710" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="711" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="712" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="713" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="714" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="715" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="716" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="717" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="718" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="719" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="720" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="721" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="722" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="723" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="724" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="725" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="726" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="727" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="728" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="729" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="730" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="731" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="732" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="733" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="734" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="735" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="736" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="737" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="738" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="739" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="740" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="741" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="742" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="743" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="744" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="745" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="746" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="747" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="748" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="749" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="750" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="751" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="752" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="753" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="754" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="755" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="756" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="757" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="758" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="759" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="760" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="761" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="762" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="763" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="764" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="765" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="766" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="767" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="768" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="769" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="770" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="771" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="772" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="773" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="774" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="775" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="776" ht="13.5" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10939,7 +11051,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10953,16 +11065,16 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11057,132 +11169,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C46</f>
+        <f>'Passenger Vehicle Calculations'!C49</f>
         <v>2435.88</v>
       </c>
       <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D46</f>
+        <f>'Passenger Vehicle Calculations'!D49</f>
         <v>1697.08</v>
       </c>
       <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E46</f>
+        <f>'Passenger Vehicle Calculations'!E49</f>
         <v>1020.0425</v>
       </c>
       <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F46</f>
+        <f>'Passenger Vehicle Calculations'!F49</f>
         <v>1000.8575</v>
       </c>
       <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G46</f>
+        <f>'Passenger Vehicle Calculations'!G49</f>
         <v>1102.7774999999999</v>
       </c>
       <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H46</f>
+        <f>'Passenger Vehicle Calculations'!H49</f>
         <v>1057.2825</v>
       </c>
       <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I46</f>
+        <f>'Passenger Vehicle Calculations'!I49</f>
         <v>1022.79</v>
       </c>
       <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J46</f>
+        <f>'Passenger Vehicle Calculations'!J49</f>
         <v>1024.8150000000001</v>
       </c>
       <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K46</f>
+        <f>'Passenger Vehicle Calculations'!K49</f>
         <v>1031.5474999999999</v>
       </c>
       <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L46</f>
+        <f>'Passenger Vehicle Calculations'!L49</f>
         <v>1089.8074999999999</v>
       </c>
       <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M46</f>
+        <f>'Passenger Vehicle Calculations'!M49</f>
         <v>1145.5925</v>
       </c>
       <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N46</f>
+        <f>'Passenger Vehicle Calculations'!N49</f>
         <v>1156.375</v>
       </c>
       <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O46</f>
+        <f>'Passenger Vehicle Calculations'!O49</f>
         <v>0</v>
       </c>
       <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P46</f>
+        <f>'Passenger Vehicle Calculations'!P49</f>
         <v>0</v>
       </c>
       <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q46</f>
+        <f>'Passenger Vehicle Calculations'!Q49</f>
         <v>0</v>
       </c>
       <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R46</f>
+        <f>'Passenger Vehicle Calculations'!R49</f>
         <v>0</v>
       </c>
       <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S46</f>
+        <f>'Passenger Vehicle Calculations'!S49</f>
         <v>0</v>
       </c>
       <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T46</f>
+        <f>'Passenger Vehicle Calculations'!T49</f>
         <v>0</v>
       </c>
       <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U46</f>
+        <f>'Passenger Vehicle Calculations'!U49</f>
         <v>0</v>
       </c>
       <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V46</f>
+        <f>'Passenger Vehicle Calculations'!V49</f>
         <v>0</v>
       </c>
       <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W46</f>
+        <f>'Passenger Vehicle Calculations'!W49</f>
         <v>0</v>
       </c>
       <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X46</f>
+        <f>'Passenger Vehicle Calculations'!X49</f>
         <v>0</v>
       </c>
       <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y46</f>
+        <f>'Passenger Vehicle Calculations'!Y49</f>
         <v>0</v>
       </c>
       <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z46</f>
+        <f>'Passenger Vehicle Calculations'!Z49</f>
         <v>0</v>
       </c>
       <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA46</f>
+        <f>'Passenger Vehicle Calculations'!AA49</f>
         <v>0</v>
       </c>
       <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB46</f>
+        <f>'Passenger Vehicle Calculations'!AB49</f>
         <v>0</v>
       </c>
       <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC46</f>
+        <f>'Passenger Vehicle Calculations'!AC49</f>
         <v>0</v>
       </c>
       <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD46</f>
+        <f>'Passenger Vehicle Calculations'!AD49</f>
         <v>0</v>
       </c>
       <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE46</f>
+        <f>'Passenger Vehicle Calculations'!AE49</f>
         <v>0</v>
       </c>
       <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <f>'Passenger Vehicle Calculations'!AF49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11277,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11372,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11467,132 +11579,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C47</f>
+        <f>'Passenger Vehicle Calculations'!C50</f>
         <v>6652.72</v>
       </c>
       <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D47</f>
+        <f>'Passenger Vehicle Calculations'!D50</f>
         <v>3617.05</v>
       </c>
       <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E47</f>
+        <f>'Passenger Vehicle Calculations'!E50</f>
         <v>1020.0425</v>
       </c>
       <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F47</f>
+        <f>'Passenger Vehicle Calculations'!F50</f>
         <v>1000.8575</v>
       </c>
       <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G47</f>
+        <f>'Passenger Vehicle Calculations'!G50</f>
         <v>1102.7774999999999</v>
       </c>
       <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H47</f>
+        <f>'Passenger Vehicle Calculations'!H50</f>
         <v>1057.2825</v>
       </c>
       <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I47</f>
+        <f>'Passenger Vehicle Calculations'!I50</f>
         <v>1022.79</v>
       </c>
       <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J47</f>
+        <f>'Passenger Vehicle Calculations'!J50</f>
         <v>1024.8150000000001</v>
       </c>
       <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K47</f>
+        <f>'Passenger Vehicle Calculations'!K50</f>
         <v>1031.5474999999999</v>
       </c>
       <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L47</f>
+        <f>'Passenger Vehicle Calculations'!L50</f>
         <v>1089.8074999999999</v>
       </c>
       <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M47</f>
+        <f>'Passenger Vehicle Calculations'!M50</f>
         <v>1145.5925</v>
       </c>
       <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N47</f>
+        <f>'Passenger Vehicle Calculations'!N50</f>
         <v>1156.375</v>
       </c>
       <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O47</f>
+        <f>'Passenger Vehicle Calculations'!O50</f>
         <v>0</v>
       </c>
       <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P47</f>
+        <f>'Passenger Vehicle Calculations'!P50</f>
         <v>0</v>
       </c>
       <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q47</f>
+        <f>'Passenger Vehicle Calculations'!Q50</f>
         <v>0</v>
       </c>
       <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R47</f>
+        <f>'Passenger Vehicle Calculations'!R50</f>
         <v>0</v>
       </c>
       <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S47</f>
+        <f>'Passenger Vehicle Calculations'!S50</f>
         <v>0</v>
       </c>
       <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T47</f>
+        <f>'Passenger Vehicle Calculations'!T50</f>
         <v>0</v>
       </c>
       <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U47</f>
+        <f>'Passenger Vehicle Calculations'!U50</f>
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V47</f>
+        <f>'Passenger Vehicle Calculations'!V50</f>
         <v>0</v>
       </c>
       <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W47</f>
+        <f>'Passenger Vehicle Calculations'!W50</f>
         <v>0</v>
       </c>
       <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X47</f>
+        <f>'Passenger Vehicle Calculations'!X50</f>
         <v>0</v>
       </c>
       <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y47</f>
+        <f>'Passenger Vehicle Calculations'!Y50</f>
         <v>0</v>
       </c>
       <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z47</f>
+        <f>'Passenger Vehicle Calculations'!Z50</f>
         <v>0</v>
       </c>
       <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA47</f>
+        <f>'Passenger Vehicle Calculations'!AA50</f>
         <v>0</v>
       </c>
       <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB47</f>
+        <f>'Passenger Vehicle Calculations'!AB50</f>
         <v>0</v>
       </c>
       <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC47</f>
+        <f>'Passenger Vehicle Calculations'!AC50</f>
         <v>0</v>
       </c>
       <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD47</f>
+        <f>'Passenger Vehicle Calculations'!AD50</f>
         <v>0</v>
       </c>
       <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE47</f>
+        <f>'Passenger Vehicle Calculations'!AE50</f>
         <v>0</v>
       </c>
       <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <f>'Passenger Vehicle Calculations'!AF50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11687,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11827,12 +11939,12 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11927,7 +12039,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12032,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12127,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12222,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12317,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12422,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12517,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12638,12 +12750,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12738,7 +12850,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12833,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12928,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13023,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13118,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13213,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13308,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13415,16 +13527,16 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13519,7 +13631,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13614,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13709,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13804,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13899,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13994,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14089,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14200,12 +14312,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -14300,7 +14412,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14395,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14490,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14585,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14680,7 +14792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14775,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14870,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
